--- a/xlsx/荷屬聖馬丁_intext.xlsx
+++ b/xlsx/荷屬聖馬丁_intext.xlsx
@@ -29,7 +29,7 @@
     <t>国家格言列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_荷屬聖馬丁</t>
+    <t>体育运动_体育运动_南非_荷屬聖馬丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
